--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H2">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N2">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O2">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P2">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q2">
-        <v>5138.317661596899</v>
+        <v>3.606974669500222</v>
       </c>
       <c r="R2">
-        <v>46244.8589543721</v>
+        <v>32.462772025502</v>
       </c>
       <c r="S2">
-        <v>0.02519092100710594</v>
+        <v>4.55093493553785E-05</v>
       </c>
       <c r="T2">
-        <v>0.02519092100710594</v>
+        <v>4.550934935537852E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H3">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O3">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P3">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q3">
-        <v>4.675522337202666</v>
+        <v>4.443385163611333</v>
       </c>
       <c r="R3">
-        <v>42.07970103482399</v>
+        <v>39.99046647250199</v>
       </c>
       <c r="S3">
-        <v>2.292203822735777E-05</v>
+        <v>5.606237533110055E-05</v>
       </c>
       <c r="T3">
-        <v>2.292203822735777E-05</v>
+        <v>5.606237533110056E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H4">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N4">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O4">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P4">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q4">
-        <v>1.118095053216</v>
+        <v>0.09292480949266665</v>
       </c>
       <c r="R4">
-        <v>10.062855478944</v>
+        <v>0.836323285434</v>
       </c>
       <c r="S4">
-        <v>5.481530341050715E-06</v>
+        <v>1.172436184468608E-06</v>
       </c>
       <c r="T4">
-        <v>5.481530341050716E-06</v>
+        <v>1.172436184468609E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H5">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N5">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O5">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P5">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q5">
-        <v>6661.534028844459</v>
+        <v>5112.199385676899</v>
       </c>
       <c r="R5">
-        <v>59953.80625960014</v>
+        <v>46009.79447109209</v>
       </c>
       <c r="S5">
-        <v>0.03265858371524202</v>
+        <v>0.06450083217505861</v>
       </c>
       <c r="T5">
-        <v>0.03265858371524202</v>
+        <v>0.06450083217505864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N6">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O6">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P6">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q6">
-        <v>28525.70585856975</v>
+        <v>21.07049400642344</v>
       </c>
       <c r="R6">
-        <v>256731.3527271277</v>
+        <v>189.634446057811</v>
       </c>
       <c r="S6">
-        <v>0.139849042095199</v>
+        <v>0.0002658472988282998</v>
       </c>
       <c r="T6">
-        <v>0.139849042095199</v>
+        <v>0.0002658472988282999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O7">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P7">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q7">
         <v>25.95646741014567</v>
@@ -883,10 +883,10 @@
         <v>233.608206691311</v>
       </c>
       <c r="S7">
-        <v>0.0001272531912612987</v>
+        <v>0.0003274938283842981</v>
       </c>
       <c r="T7">
-        <v>0.0001272531912612987</v>
+        <v>0.0003274938283842981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N8">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O8">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P8">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q8">
-        <v>6.207177662124001</v>
+        <v>0.5428293295263333</v>
       </c>
       <c r="R8">
-        <v>55.86459895911601</v>
+        <v>4.885463965737</v>
       </c>
       <c r="S8">
-        <v>3.043107344886163E-05</v>
+        <v>6.848900217306687E-06</v>
       </c>
       <c r="T8">
-        <v>3.043107344886164E-05</v>
+        <v>6.848900217306689E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N9">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O9">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P9">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q9">
-        <v>36981.94093640635</v>
+        <v>29863.41085962542</v>
       </c>
       <c r="R9">
-        <v>332837.4684276571</v>
+        <v>268770.6977366287</v>
       </c>
       <c r="S9">
-        <v>0.1813062590079224</v>
+        <v>0.3767878963070754</v>
       </c>
       <c r="T9">
-        <v>0.1813062590079224</v>
+        <v>0.3767878963070755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H10">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N10">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O10">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P10">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q10">
-        <v>34933.3618651949</v>
+        <v>22.843558015915</v>
       </c>
       <c r="R10">
-        <v>314400.2567867541</v>
+        <v>205.592022143235</v>
       </c>
       <c r="S10">
-        <v>0.1712629730613584</v>
+        <v>0.0002882181211464337</v>
       </c>
       <c r="T10">
-        <v>0.1712629730613584</v>
+        <v>0.0002882181211464338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H11">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O11">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P11">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q11">
-        <v>31.78700198608233</v>
+        <v>28.140681893415</v>
       </c>
       <c r="R11">
-        <v>286.083017874741</v>
+        <v>253.2661370407349</v>
       </c>
       <c r="S11">
-        <v>0.0001558377486212603</v>
+        <v>0.000355052153322564</v>
       </c>
       <c r="T11">
-        <v>0.0001558377486212603</v>
+        <v>0.000355052153322564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H12">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N12">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O12">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P12">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q12">
-        <v>7.601480030243999</v>
+        <v>0.588507952305</v>
       </c>
       <c r="R12">
-        <v>68.413320272196</v>
+        <v>5.296571570745</v>
       </c>
       <c r="S12">
-        <v>3.726672728121263E-05</v>
+        <v>7.425229299871307E-06</v>
       </c>
       <c r="T12">
-        <v>3.726672728121263E-05</v>
+        <v>7.425229299871308E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H13">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N13">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O13">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P13">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q13">
-        <v>45289.09929920741</v>
+        <v>32376.39128522526</v>
       </c>
       <c r="R13">
-        <v>407601.8936928667</v>
+        <v>291387.5215670274</v>
       </c>
       <c r="S13">
-        <v>0.222032618079659</v>
+        <v>0.4084942748072874</v>
       </c>
       <c r="T13">
-        <v>0.222032618079659</v>
+        <v>0.4084942748072875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H14">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N14">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O14">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P14">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q14">
-        <v>20181.17993130058</v>
+        <v>8.311403555435223</v>
       </c>
       <c r="R14">
-        <v>181630.6193817052</v>
+        <v>74.80263199891701</v>
       </c>
       <c r="S14">
-        <v>0.09893948622117463</v>
+        <v>0.0001048653241832292</v>
       </c>
       <c r="T14">
-        <v>0.09893948622117461</v>
+        <v>0.0001048653241832292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H15">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O15">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P15">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q15">
-        <v>18.363511906848</v>
+        <v>10.23870989704633</v>
       </c>
       <c r="R15">
-        <v>165.271607161632</v>
+        <v>92.14838907341699</v>
       </c>
       <c r="S15">
-        <v>9.002825600211943E-05</v>
+        <v>0.0001291822284179266</v>
       </c>
       <c r="T15">
-        <v>9.002825600211942E-05</v>
+        <v>0.0001291822284179266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H16">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N16">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O16">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P16">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q16">
-        <v>4.391413481088001</v>
+        <v>0.2141228211376667</v>
       </c>
       <c r="R16">
-        <v>39.52272132979201</v>
+        <v>1.927105390239</v>
       </c>
       <c r="S16">
-        <v>2.152917694022989E-05</v>
+        <v>2.701596535875728E-06</v>
       </c>
       <c r="T16">
-        <v>2.152917694022989E-05</v>
+        <v>2.701596535875728E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H17">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N17">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O17">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P17">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q17">
-        <v>26163.74185258349</v>
+        <v>11779.83103388304</v>
       </c>
       <c r="R17">
-        <v>235473.6766732514</v>
+        <v>106018.4793049474</v>
       </c>
       <c r="S17">
-        <v>0.1282693670702152</v>
+        <v>0.1486266178693717</v>
       </c>
       <c r="T17">
-        <v>0.1282693670702151</v>
+        <v>0.1486266178693718</v>
       </c>
     </row>
   </sheetData>
